--- a/13_反復計画書（交渉後） .xlsx
+++ b/13_反復計画書（交渉後） .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AD1D5-A9F1-4FE6-8D60-567F9A9AAEC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F39AB-436E-4A74-B8EE-A3675E3A1A6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,7 +1493,7 @@
       <c r="C12" s="28">
         <v>43984</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1504,7 +1504,7 @@
       <c r="C13" s="29">
         <v>43992</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1526,7 +1526,7 @@
       <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
